--- a/pressuretemps.xlsx
+++ b/pressuretemps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\embas\Documents\GitHub\Thermal-Fluids-Gas-Turbine-Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183E367A-3A1A-458B-B6F7-2A3A65470515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715DFEB9-E931-4D29-A6E9-18C8C52D6E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7237" yWindow="3360" windowWidth="16200" windowHeight="9308" xr2:uid="{E298BD80-BBB2-4960-ABED-8A50683300C2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E298BD80-BBB2-4960-ABED-8A50683300C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>TempK</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>PressBar</t>
+  </si>
+  <si>
+    <t>PresskPa</t>
   </si>
 </sst>
 </file>
@@ -416,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06677396-8161-4994-A1E1-605006ADC3BE}">
-  <dimension ref="B2:D26"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -434,8 +437,11 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.01</v>
       </c>
@@ -446,8 +452,12 @@
       <c r="D3">
         <v>6.11E-3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E3">
+        <f>D3*100</f>
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>10</v>
       </c>
@@ -458,8 +468,12 @@
       <c r="D4">
         <v>1.2279999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E4">
+        <f t="shared" ref="E4:E26" si="1">D4*100</f>
+        <v>1.228</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>20</v>
       </c>
@@ -470,8 +484,12 @@
       <c r="D5">
         <v>2.3390000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.339</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>30</v>
       </c>
@@ -482,8 +500,12 @@
       <c r="D6">
         <v>4.2459999999999998E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4.2459999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>40</v>
       </c>
@@ -494,8 +516,12 @@
       <c r="D7">
         <v>7.3840000000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>7.3840000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>50</v>
       </c>
@@ -506,8 +532,12 @@
       <c r="D8">
         <v>0.1235</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>60</v>
       </c>
@@ -518,8 +548,12 @@
       <c r="D9">
         <v>0.19939999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>19.939999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>70</v>
       </c>
@@ -530,8 +564,12 @@
       <c r="D10">
         <v>0.31190000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>31.19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>80</v>
       </c>
@@ -542,8 +580,12 @@
       <c r="D11">
         <v>0.47389999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>47.39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>90</v>
       </c>
@@ -554,8 +596,12 @@
       <c r="D12">
         <v>0.70140000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>70.14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>100</v>
       </c>
@@ -566,8 +612,12 @@
       <c r="D13">
         <v>1.014</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>120</v>
       </c>
@@ -578,8 +628,12 @@
       <c r="D14">
         <v>1.9850000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>140</v>
       </c>
@@ -590,8 +644,12 @@
       <c r="D15">
         <v>3.613</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>361.3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>160</v>
       </c>
@@ -602,8 +660,12 @@
       <c r="D16">
         <v>6.1779999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>617.79999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>180</v>
       </c>
@@ -614,8 +676,12 @@
       <c r="D17">
         <v>10.02</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>200</v>
       </c>
@@ -626,8 +692,12 @@
       <c r="D18">
         <v>15.54</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>220</v>
       </c>
@@ -638,8 +708,12 @@
       <c r="D19">
         <v>23.18</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>240</v>
       </c>
@@ -650,8 +724,12 @@
       <c r="D20">
         <v>33.44</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>260</v>
       </c>
@@ -662,8 +740,12 @@
       <c r="D21">
         <v>46.88</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>280</v>
       </c>
@@ -674,8 +756,12 @@
       <c r="D22">
         <v>64.12</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>6412</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>300</v>
       </c>
@@ -686,8 +772,12 @@
       <c r="D23">
         <v>85.81</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>8581</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>320</v>
       </c>
@@ -698,8 +788,12 @@
       <c r="D24">
         <v>112.7</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>11270</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>340</v>
       </c>
@@ -710,8 +804,12 @@
       <c r="D25">
         <v>145.9</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>14590</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>360</v>
       </c>
@@ -721,6 +819,10 @@
       </c>
       <c r="D26">
         <v>186.5</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>18650</v>
       </c>
     </row>
   </sheetData>

--- a/pressuretemps.xlsx
+++ b/pressuretemps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\embas\Documents\GitHub\Thermal-Fluids-Gas-Turbine-Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715DFEB9-E931-4D29-A6E9-18C8C52D6E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB07F69-0A1B-4D62-870B-BD75E6A51219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{E298BD80-BBB2-4960-ABED-8A50683300C2}"/>
   </bookViews>
@@ -100,6 +100,1065 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PresskPa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>273.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>633</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2459999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>198.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>361.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>617.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1554</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2318</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3344</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4688</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6412</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8581</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11270</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14590</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9E8-4BDC-9475-7953FFA8A886}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="839639663"/>
+        <c:axId val="839641583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="839639663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839641583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="839641583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839639663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502443</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CEA82E-8410-73E0-C4D9-69D695C3D23A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06677396-8161-4994-A1E1-605006ADC3BE}">
-  <dimension ref="B2:E26"/>
+  <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -462,370 +1521,387 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C26" si="0">273+B4</f>
+        <f t="shared" ref="C4:C27" si="0">273+B4</f>
         <v>283</v>
       </c>
       <c r="D4">
         <v>1.2279999999999999E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E26" si="1">D4*100</f>
+        <f t="shared" ref="E4:E27" si="1">D4*100</f>
         <v>1.228</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D5">
-        <v>2.3390000000000001E-2</v>
+        <v>1.7049999999999999E-2</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>2.339</v>
+        <v>1.7049999999999998</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D6">
-        <v>4.2459999999999998E-2</v>
+        <v>2.3390000000000001E-2</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>4.2459999999999996</v>
+        <v>2.339</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D7">
-        <v>7.3840000000000003E-2</v>
+        <v>4.2459999999999998E-2</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>7.3840000000000003</v>
+        <v>4.2459999999999996</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D8">
-        <v>0.1235</v>
+        <v>7.3840000000000003E-2</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>12.35</v>
+        <v>7.3840000000000003</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D9">
-        <v>0.19939999999999999</v>
+        <v>0.1235</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>19.939999999999998</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D10">
-        <v>0.31190000000000001</v>
+        <v>0.19939999999999999</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>31.19</v>
+        <v>19.939999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D11">
-        <v>0.47389999999999999</v>
+        <v>0.31190000000000001</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>47.39</v>
+        <v>31.19</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D12">
-        <v>0.70140000000000002</v>
+        <v>0.47389999999999999</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>70.14</v>
+        <v>47.39</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D13">
-        <v>1.014</v>
+        <v>0.70140000000000002</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>101.4</v>
+        <v>70.14</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="D14">
-        <v>1.9850000000000001</v>
+        <v>1.014</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>198.5</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="D15">
-        <v>3.613</v>
+        <v>1.9850000000000001</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>361.3</v>
+        <v>198.5</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D16">
-        <v>6.1779999999999999</v>
+        <v>3.613</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>617.79999999999995</v>
+        <v>361.3</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D17">
-        <v>10.02</v>
+        <v>6.1779999999999999</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>1002</v>
+        <v>617.79999999999995</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="D18">
-        <v>15.54</v>
+        <v>10.02</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>1554</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="D19">
-        <v>23.18</v>
+        <v>15.54</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>2318</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="D20">
-        <v>33.44</v>
+        <v>23.18</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>3344</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="D21">
-        <v>46.88</v>
+        <v>33.44</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>4688</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="D22">
-        <v>64.12</v>
+        <v>46.88</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>6412</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="D23">
-        <v>85.81</v>
+        <v>64.12</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>8581</v>
+        <v>6412</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="D24">
-        <v>112.7</v>
+        <v>85.81</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>11270</v>
+        <v>8581</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="D25">
-        <v>145.9</v>
+        <v>112.7</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>14590</v>
+        <v>11270</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26">
+        <v>340</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>613</v>
+      </c>
+      <c r="D26">
+        <v>145.9</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>14590</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B27">
         <v>360</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <f t="shared" si="0"/>
         <v>633</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>186.5</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <f t="shared" si="1"/>
         <v>18650</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>